--- a/section2/ExcelHomework.xlsx
+++ b/section2/ExcelHomework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twchr\Code\SavvyCoders\Homework\section2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FE0C26-0984-4B44-A330-942A06FFA476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9122DAB9-9A2A-4B7D-B24A-60012480517B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10350" yWindow="-20460" windowWidth="26310" windowHeight="19050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -729,58 +729,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
@@ -791,259 +740,10 @@
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1222,16 +922,70 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -2260,17 +2014,7 @@
           </a:sp3d>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2341,17 +2085,7 @@
           </a:sp3d>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2422,17 +2156,7 @@
           </a:sp3d>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7577,7 +7301,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7559E5D-0689-408C-8396-1D310D8F6050}" name="PivotTable5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7559E5D-0689-408C-8396-1D310D8F6050}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0"/>
@@ -7745,13 +7469,13 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="10" baseItem="2" numFmtId="165"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="62">
+    <format dxfId="4">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="2">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7760,10 +7484,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -7829,18 +7553,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D6A0BA9-EFF0-435B-8B6B-30B75795CBF4}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="87" dataDxfId="88" headerRowBorderDxfId="98" tableBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D6A0BA9-EFF0-435B-8B6B-30B75795CBF4}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="A2:I210" xr:uid="{9D6A0BA9-EFF0-435B-8B6B-30B75795CBF4}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A400C66D-49AE-45E6-81D9-FF2D69297ACF}" name="Document Date" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{D8065646-5870-4656-9CDD-45677E703F5B}" name="Supplier" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{95BEC7A3-13B0-4AA7-B64E-D7D4EF3AE4D4}" name="Reference" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{6552B416-6780-4646-B757-416FA8AAA1CA}" name="Description" dataDxfId="94"/>
-    <tableColumn id="5" xr3:uid="{8F24A39C-0081-470C-B474-E659E03768E8}" name="Tax Inclusive Amount" dataDxfId="93" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{A2AC9706-6044-4BC9-A6CE-D8C864D72E9C}" name="Column1" dataDxfId="92"/>
-    <tableColumn id="7" xr3:uid="{27DEEC62-B58D-4756-986C-3F0689D43D3A}" name="Bank Code" dataDxfId="91"/>
-    <tableColumn id="8" xr3:uid="{977C5378-3ED8-45CA-B8C9-3141F77ABBA3}" name="Account Code" dataDxfId="90"/>
-    <tableColumn id="9" xr3:uid="{993BCF24-B2D2-4BFC-B0D1-E5001D4C1722}" name="Payment Date" dataDxfId="89"/>
+    <tableColumn id="1" xr3:uid="{A400C66D-49AE-45E6-81D9-FF2D69297ACF}" name="Document Date" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D8065646-5870-4656-9CDD-45677E703F5B}" name="Supplier" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{95BEC7A3-13B0-4AA7-B64E-D7D4EF3AE4D4}" name="Reference" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{6552B416-6780-4646-B757-416FA8AAA1CA}" name="Description" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{8F24A39C-0081-470C-B474-E659E03768E8}" name="Tax Inclusive Amount" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{A2AC9706-6044-4BC9-A6CE-D8C864D72E9C}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{27DEEC62-B58D-4756-986C-3F0689D43D3A}" name="Bank Code" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{977C5378-3ED8-45CA-B8C9-3141F77ABBA3}" name="Account Code" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{993BCF24-B2D2-4BFC-B0D1-E5001D4C1722}" name="Payment Date" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14695,16 +14419,14 @@
   <dimension ref="A3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="27" customWidth="1"/>
+    <col min="3" max="5" width="16.6328125" customWidth="1"/>
     <col min="6" max="69" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="12" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="10.7265625" bestFit="1" customWidth="1"/>
